--- a/dat/Data.xlsx
+++ b/dat/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="19418" windowHeight="10418" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="UOM" sheetId="13" r:id="rId1"/>
@@ -2863,7 +2863,7 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -2914,19 +2914,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="68.36328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.53125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="68.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="13" customWidth="1"/>
     <col min="5" max="16384" width="13" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="19.05" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="20" t="s">
         <v>213</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="17">
         <f>IF(USDAFoodsLookup!C2&lt;&gt;"",USDAFoodsLookup!C2,"")</f>
         <v>168603</v>
@@ -2962,7 +2962,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="17">
         <f>IF(USDAFoodsLookup!C3&lt;&gt;"",USDAFoodsLookup!C3,"")</f>
         <v>174832</v>
@@ -2982,7 +2982,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="17">
         <f>IF(USDAFoodsLookup!C4&lt;&gt;"",USDAFoodsLookup!C4,"")</f>
         <v>173933</v>
@@ -3002,7 +3002,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="17">
         <f>IF(USDAFoodsLookup!C5&lt;&gt;"",USDAFoodsLookup!C5,"")</f>
         <v>171697</v>
@@ -3022,7 +3022,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="17">
         <f>IF(USDAFoodsLookup!C6&lt;&gt;"",USDAFoodsLookup!C6,"")</f>
         <v>171705</v>
@@ -3042,7 +3042,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="17">
         <f>IF(USDAFoodsLookup!C7&lt;&gt;"",USDAFoodsLookup!C7,"")</f>
         <v>173944</v>
@@ -3062,7 +3062,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="17">
         <f>IF(USDAFoodsLookup!C8&lt;&gt;"",USDAFoodsLookup!C8,"")</f>
         <v>173946</v>
@@ -3082,7 +3082,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="17">
         <f>IF(USDAFoodsLookup!C9&lt;&gt;"",USDAFoodsLookup!C9,"")</f>
         <v>171711</v>
@@ -3102,7 +3102,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
         <f>IF(USDAFoodsLookup!C10&lt;&gt;"",USDAFoodsLookup!C10,"")</f>
         <v>169092</v>
@@ -3122,7 +3122,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="17">
         <f>IF(USDAFoodsLookup!C11&lt;&gt;"",USDAFoodsLookup!C11,"")</f>
         <v>170393</v>
@@ -3142,7 +3142,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="17">
         <f>IF(USDAFoodsLookup!C12&lt;&gt;"",USDAFoodsLookup!C12,"")</f>
         <v>1473411</v>
@@ -3162,7 +3162,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
         <f>IF(USDAFoodsLookup!C13&lt;&gt;"",USDAFoodsLookup!C13,"")</f>
         <v>169986</v>
@@ -3182,7 +3182,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
         <f>IF(USDAFoodsLookup!C14&lt;&gt;"",USDAFoodsLookup!C14,"")</f>
         <v>171719</v>
@@ -3202,7 +3202,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="17">
         <f>IF(USDAFoodsLookup!C15&lt;&gt;"",USDAFoodsLookup!C15,"")</f>
         <v>170554</v>
@@ -3222,7 +3222,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="17">
         <f>IF(USDAFoodsLookup!C16&lt;&gt;"",USDAFoodsLookup!C16,"")</f>
         <v>170173</v>
@@ -3242,7 +3242,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="17">
         <f>IF(USDAFoodsLookup!C17&lt;&gt;"",USDAFoodsLookup!C17,"")</f>
         <v>168409</v>
@@ -3262,7 +3262,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="17">
         <f>IF(USDAFoodsLookup!C18&lt;&gt;"",USDAFoodsLookup!C18,"")</f>
         <v>1529369</v>
@@ -3282,7 +3282,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="17">
         <f>IF(USDAFoodsLookup!C19&lt;&gt;"",USDAFoodsLookup!C19,"")</f>
         <v>168421</v>
@@ -3302,7 +3302,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="17">
         <f>IF(USDAFoodsLookup!C20&lt;&gt;"",USDAFoodsLookup!C20,"")</f>
         <v>170904</v>
@@ -3322,7 +3322,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="17">
         <f>IF(USDAFoodsLookup!C21&lt;&gt;"",USDAFoodsLookup!C21,"")</f>
         <v>168153</v>
@@ -3342,7 +3342,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="17">
         <f>IF(USDAFoodsLookup!C22&lt;&gt;"",USDAFoodsLookup!C22,"")</f>
         <v>169910</v>
@@ -3362,7 +3362,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="17">
         <f>IF(USDAFoodsLookup!C23&lt;&gt;"",USDAFoodsLookup!C23,"")</f>
         <v>170872</v>
@@ -3382,7 +3382,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="17">
         <f>IF(USDAFoodsLookup!C24&lt;&gt;"",USDAFoodsLookup!C24,"")</f>
         <v>171269</v>
@@ -3402,7 +3402,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="17">
         <f>IF(USDAFoodsLookup!C25&lt;&gt;"",USDAFoodsLookup!C25,"")</f>
         <v>1660854</v>
@@ -3422,7 +3422,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
         <f>IF(USDAFoodsLookup!C26&lt;&gt;"",USDAFoodsLookup!C26,"")</f>
         <v>1737794</v>
@@ -3442,7 +3442,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17">
         <f>IF(USDAFoodsLookup!C27&lt;&gt;"",USDAFoodsLookup!C27,"")</f>
         <v>169097</v>
@@ -3462,7 +3462,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17">
         <f>IF(USDAFoodsLookup!C28&lt;&gt;"",USDAFoodsLookup!C28,"")</f>
         <v>169102</v>
@@ -3482,7 +3482,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17">
         <f>IF(USDAFoodsLookup!C29&lt;&gt;"",USDAFoodsLookup!C29,"")</f>
         <v>169928</v>
@@ -3502,7 +3502,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17">
         <f>IF(USDAFoodsLookup!C30&lt;&gt;"",USDAFoodsLookup!C30,"")</f>
         <v>174266</v>
@@ -3522,7 +3522,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17">
         <f>IF(USDAFoodsLookup!C31&lt;&gt;"",USDAFoodsLookup!C31,"")</f>
         <v>169124</v>
@@ -3542,7 +3542,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17">
         <f>IF(USDAFoodsLookup!C32&lt;&gt;"",USDAFoodsLookup!C32,"")</f>
         <v>169947</v>
@@ -3562,7 +3562,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17">
         <f>IF(USDAFoodsLookup!C33&lt;&gt;"",USDAFoodsLookup!C33,"")</f>
         <v>169134</v>
@@ -3582,7 +3582,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17">
         <f>IF(USDAFoodsLookup!C34&lt;&gt;"",USDAFoodsLookup!C34,"")</f>
         <v>168448</v>
@@ -3602,7 +3602,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="17">
         <f>IF(USDAFoodsLookup!C35&lt;&gt;"",USDAFoodsLookup!C35,"")</f>
         <v>167755</v>
@@ -3622,7 +3622,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="17">
         <f>IF(USDAFoodsLookup!C36&lt;&gt;"",USDAFoodsLookup!C36,"")</f>
         <v>169705</v>
@@ -3642,7 +3642,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="17">
         <f>IF(USDAFoodsLookup!C37&lt;&gt;"",USDAFoodsLookup!C37,"")</f>
         <v>168462</v>
@@ -3662,7 +3662,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17">
         <f>IF(USDAFoodsLookup!C38&lt;&gt;"",USDAFoodsLookup!C38,"")</f>
         <v>167762</v>
@@ -3682,7 +3682,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="17">
         <f>IF(USDAFoodsLookup!C39&lt;&gt;"",USDAFoodsLookup!C39,"")</f>
         <v>174292</v>
@@ -3702,7 +3702,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="17">
         <f>IF(USDAFoodsLookup!C40&lt;&gt;"",USDAFoodsLookup!C40,"")</f>
         <v>167765</v>
@@ -3722,7 +3722,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17">
         <f>IF(USDAFoodsLookup!C41&lt;&gt;"",USDAFoodsLookup!C41,"")</f>
         <v>170887</v>
@@ -3742,7 +3742,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="17">
         <f>IF(USDAFoodsLookup!C42&lt;&gt;"",USDAFoodsLookup!C42,"")</f>
         <v>171284</v>
@@ -3762,7 +3762,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="17">
         <f>IF(USDAFoodsLookup!C43&lt;&gt;"",USDAFoodsLookup!C43,"")</f>
         <v>169640</v>
@@ -3782,7 +3782,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="17">
         <f>IF(USDAFoodsLookup!C44&lt;&gt;"",USDAFoodsLookup!C44,"")</f>
         <v>169593</v>
@@ -3802,7 +3802,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17">
         <f>IF(USDAFoodsLookup!C45&lt;&gt;"",USDAFoodsLookup!C45,"")</f>
         <v>746784</v>
@@ -3822,7 +3822,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="17">
         <f>IF(USDAFoodsLookup!C46&lt;&gt;"",USDAFoodsLookup!C46,"")</f>
         <v>1103216</v>
@@ -3842,7 +3842,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="17">
         <f>IF(USDAFoodsLookup!C47&lt;&gt;"",USDAFoodsLookup!C47,"")</f>
         <v>169603</v>
@@ -3862,7 +3862,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="17">
         <f>IF(USDAFoodsLookup!C48&lt;&gt;"",USDAFoodsLookup!C48,"")</f>
         <v>1142735</v>
@@ -3882,7 +3882,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="17">
         <f>IF(USDAFoodsLookup!C49&lt;&gt;"",USDAFoodsLookup!C49,"")</f>
         <v>170681</v>
@@ -3902,7 +3902,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="17">
         <f>IF(USDAFoodsLookup!C50&lt;&gt;"",USDAFoodsLookup!C50,"")</f>
         <v>1587209</v>
@@ -3922,7 +3922,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="17">
         <f>IF(USDAFoodsLookup!C51&lt;&gt;"",USDAFoodsLookup!C51,"")</f>
         <v>172213</v>
@@ -3942,7 +3942,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="17">
         <f>IF(USDAFoodsLookup!C52&lt;&gt;"",USDAFoodsLookup!C52,"")</f>
         <v>171320</v>
@@ -3962,7 +3962,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="17">
         <f>IF(USDAFoodsLookup!C53&lt;&gt;"",USDAFoodsLookup!C53,"")</f>
         <v>171326</v>
@@ -3982,7 +3982,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="17">
         <f>IF(USDAFoodsLookup!C54&lt;&gt;"",USDAFoodsLookup!C54,"")</f>
         <v>174130</v>
@@ -4002,7 +4002,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="17">
         <f>IF(USDAFoodsLookup!C55&lt;&gt;"",USDAFoodsLookup!C55,"")</f>
         <v>1101819</v>
@@ -4022,7 +4022,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="17">
         <f>IF(USDAFoodsLookup!C56&lt;&gt;"",USDAFoodsLookup!C56,"")</f>
         <v>1101824</v>
@@ -4059,13 +4059,13 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4268,212 +4268,212 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>98</v>
       </c>
@@ -4495,17 +4495,17 @@
       <selection pane="bottomLeft" activeCell="A128" sqref="A128:XFD128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>89</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>96</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>97</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>98</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>102</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>49</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>50</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>36</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>52</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>26</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>53</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>22</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>23</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>24</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>34</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>30</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>13</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>16</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>18</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>20</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>54</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>153</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>152</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>151</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>150</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>149</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>148</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>147</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>146</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>145</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>144</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
         <v>143</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
         <v>142</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>141</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>140</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>139</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>137</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>136</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>25</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>135</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>21</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>134</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>133</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>132</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
         <v>131</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
         <v>130</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>129</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>128</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>127</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>12</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>29</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>14</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>19</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>33</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>57</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>690</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>691</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>693</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>697</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>695</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>688</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>329</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>474</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>332</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>296</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>123</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>122</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>121</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>120</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>119</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>118</v>
       </c>
@@ -6829,11 +6829,11 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="3" max="16384" width="8.73046875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -6922,20 +6922,20 @@
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="12.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.796875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>125</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>125</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>125</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>125</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>125</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>125</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>125</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>125</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>125</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>125</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>125</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>125</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>125</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>125</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>125</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>125</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>125</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>125</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>125</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>125</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>117</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>117</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>117</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>117</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>117</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>117</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>117</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>117</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>117</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>117</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>117</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>117</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>117</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>117</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>117</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>117</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>117</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>117</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>117</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>117</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>117</v>
       </c>
@@ -8840,16 +8840,16 @@
       <selection pane="bottomLeft" activeCell="A51" sqref="A51:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>240</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1067</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1068</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1069</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1070</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1071</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1072</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1073</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1074</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1075</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1077</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1078</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1079</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1080</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1081</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1082</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1083</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1084</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1085</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1086</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1087</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1088</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1089</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1090</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1091</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1092</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1093</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1094</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1095</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1096</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1097</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>6244</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1098</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1099</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1100</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1101</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1102</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>6243</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1103</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1104</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1105</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1106</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>7420</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1107</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1108</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>7450</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1109</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>7905</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1110</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>8650</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1111</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>8710</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1112</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>8720</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1113</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>8730</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1114</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1115</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>8740</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1116</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>7570</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1117</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1118</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1119</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1120</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1121</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>7562</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1122</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>7530</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1123</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1124</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1125</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1126</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1127</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1128</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1129</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1130</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1131</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1132</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1133</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1134</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1135</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1136</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1137</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>6245</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1138</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>1139</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1140</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1141</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1142</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1143</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1144</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1145</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1146</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1147</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1149</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1150</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1151</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1152</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1153</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1154</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1155</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1156</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1157</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>1158</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1159</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>7442</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1160</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1161</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>7561</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1162</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1163</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>1164</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1165</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1166</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1167</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1168</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1169</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1170</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1171</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1172</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1173</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1174</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1175</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1176</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>6850</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1177</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1178</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>1179</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1180</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>7220</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1181</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1182</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1183</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>8950</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1184</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1185</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1186</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1187</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1188</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1189</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1190</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1191</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1192</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1193</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1194</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>7230</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1195</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>1196</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1197</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>7260</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>1198</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>7290</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1199</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>1200</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>1201</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1202</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1203</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1204</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>1205</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1206</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1207</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1208</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>1209</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1210</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1211</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1212</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>1213</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>1214</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>1215</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>1216</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>1217</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>1218</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>17100</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>1219</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>1220</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>1221</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>1222</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1223</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>1224</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>1225</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>1226</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>1227</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>1228</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>18100</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>1229</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>1230</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>1231</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>1232</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>18150</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>1233</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>1234</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>1235</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>1236</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>1237</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>1238</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1239</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>1240</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>5420</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>1241</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>1242</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>7920</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>1243</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>1244</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>1245</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>6640</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>1246</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>7340</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>1247</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>1248</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>7930</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>1249</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>6420</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>1250</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1251</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>6620</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>1252</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>1253</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>1254</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>1255</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>1256</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>1257</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>1258</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>1259</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>1260</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>1261</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>1262</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>1263</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>1264</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>1265</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>1266</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>1267</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>1268</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>1269</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>1270</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1271</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>14700</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>1272</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>1273</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>1274</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>1275</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>1276</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>14250</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>1277</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>1278</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>1279</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>1280</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1281</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>15510</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>1283</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>1284</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>16220</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>1285</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>15900</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>1286</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>1287</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>16100</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>1288</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>1289</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>16221</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1290</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>1291</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1292</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>1293</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>1294</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>16222</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>1295</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>16223</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>1296</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>16224</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>1297</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>16225</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>1298</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>16227</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>1299</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>1300</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>1301</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>1302</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>1303</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>15520</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1304</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>15521</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>1305</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>15550</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>1306</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>15610</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>1307</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>13350</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>1308</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>1309</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>1310</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>15615</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>1311</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>1312</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>1313</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>1314</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>1315</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>1316</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>1317</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>1318</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>1319</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>1320</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>1321</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>14100</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>1322</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>1323</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>1324</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>1325</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>1326</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>1327</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>1328</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>1329</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>1330</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>15601</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>1331</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>15619</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>1332</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>1333</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>1334</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>1335</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>1336</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>1337</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>1338</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>1339</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>1340</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>1341</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>1342</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>19300</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>1343</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>1344</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>1345</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>1346</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>1347</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>1348</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>1349</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>1350</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>19510</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>1351</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>19520</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>1352</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>19530</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>1353</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>19540</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>1354</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>19550</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>1355</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>19560</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>1356</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>19570</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>1357</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>1358</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>1359</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>1360</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>1361</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>1362</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>20100</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>1363</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>1364</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>20300</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>1365</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>1366</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>1367</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>20600</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>1368</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>1369</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>20800</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>1370</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>1371</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>1372</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>1373</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>21300</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>1374</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>1375</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>1376</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>1377</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>21700</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>1378</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>1379</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>21900</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>1380</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>1381</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>22100</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>1382</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>1383</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>1384</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>1385</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>1386</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>1387</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>22700</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>1388</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>1389</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>1390</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>1391</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>1392</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>21100</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>1393</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>1394</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>1395</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>1396</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>1397</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>1398</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>1399</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>1400</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>1401</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>1402</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>1403</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>1404</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>1405</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>1406</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>1407</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>1408</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>1409</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>1410</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>1411</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>15160</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>1412</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>12310</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>1413</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>12210</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>1414</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>14650</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>2000</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>2003</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>9850</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>2004</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>9950</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>2005</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>2006</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>11150</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>2007</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>2008</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>11450</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>2009</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>11501</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>2010</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>2011</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>15525</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>2012</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>12401</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>2013</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>15540</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>2014</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>12601</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>2015</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>12602</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>2016</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>13150</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>2017</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>15611</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>2018</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>13910</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>2019</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>15660</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>2020</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>14450</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>2021</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>14675</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>2022</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>2023</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>2024</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>15150</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>2025</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>15250</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>2026</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>14250</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>2027</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>2028</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>7444</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>2029</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>7534</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>2032</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>7461</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>2033</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>2034</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>2035</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>2036</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>2037</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>2038</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>2039</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>2040</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>7510</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>2041</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>2042</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>16250</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>2043</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>2044</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>2045</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>2046</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>2047</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>2048</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>2049</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>19310</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>2050</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>19320</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>2051</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>19330</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>2052</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>16226</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>2053</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>15801</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>2054</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>7902</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>2055</v>
       </c>
@@ -16701,21 +16701,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="20.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>155</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>153</v>
       </c>
@@ -16749,11 +16749,10 @@
         <v>ug</v>
       </c>
       <c r="E2" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D2),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -16770,11 +16769,10 @@
         <v>ug</v>
       </c>
       <c r="E3" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D3),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -16791,11 +16789,10 @@
         <v>ug</v>
       </c>
       <c r="E4" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D4),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>100</v>
       </c>
@@ -16812,11 +16809,10 @@
         <v>mg</v>
       </c>
       <c r="E5" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D5),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>151</v>
       </c>
@@ -16833,11 +16829,10 @@
         <v>mg</v>
       </c>
       <c r="E6" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D6),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>150</v>
       </c>
@@ -16854,11 +16849,10 @@
         <v>mg</v>
       </c>
       <c r="E7" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D7),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>149</v>
       </c>
@@ -16875,11 +16869,10 @@
         <v>ug</v>
       </c>
       <c r="E8" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D8),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>148</v>
       </c>
@@ -16896,11 +16889,10 @@
         <v>mg</v>
       </c>
       <c r="E9" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D9),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>101</v>
       </c>
@@ -16917,11 +16909,10 @@
         <v>kcal</v>
       </c>
       <c r="E10" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D10),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>329</v>
       </c>
@@ -16937,13 +16928,12 @@
         <v>g</v>
       </c>
       <c r="E11" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D11),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>146</v>
       </c>
@@ -16960,11 +16950,10 @@
         <v>ug</v>
       </c>
       <c r="E12" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D12),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>145</v>
       </c>
@@ -16981,11 +16970,10 @@
         <v>ug</v>
       </c>
       <c r="E13" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D13),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>144</v>
       </c>
@@ -17002,11 +16990,10 @@
         <v>ug</v>
       </c>
       <c r="E14" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D14),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>143</v>
       </c>
@@ -17023,11 +17010,10 @@
         <v>mg</v>
       </c>
       <c r="E15" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D15),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>142</v>
       </c>
@@ -17044,11 +17030,10 @@
         <v>mg</v>
       </c>
       <c r="E16" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D16),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>141</v>
       </c>
@@ -17065,11 +17050,10 @@
         <v>mg</v>
       </c>
       <c r="E17" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D17),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>140</v>
       </c>
@@ -17086,11 +17070,10 @@
         <v>ug</v>
       </c>
       <c r="E18" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D18),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>139</v>
       </c>
@@ -17107,11 +17090,10 @@
         <v>ug</v>
       </c>
       <c r="E19" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D19),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>62</v>
       </c>
@@ -17128,11 +17110,10 @@
         <v>mg</v>
       </c>
       <c r="E20" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D20),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>138</v>
       </c>
@@ -17149,11 +17130,10 @@
         <v>mg</v>
       </c>
       <c r="E21" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D21),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>137</v>
       </c>
@@ -17170,11 +17150,10 @@
         <v>mg</v>
       </c>
       <c r="E22" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D22),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>136</v>
       </c>
@@ -17191,11 +17170,10 @@
         <v>mg</v>
       </c>
       <c r="E23" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D23),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>103</v>
       </c>
@@ -17212,11 +17190,10 @@
         <v>g</v>
       </c>
       <c r="E24" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D24),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -17233,11 +17210,10 @@
         <v>mg</v>
       </c>
       <c r="E25" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D25),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>135</v>
       </c>
@@ -17254,11 +17230,10 @@
         <v>ug</v>
       </c>
       <c r="E26" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D26),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -17275,11 +17250,10 @@
         <v>mg</v>
       </c>
       <c r="E27" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D27),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>134</v>
       </c>
@@ -17296,11 +17270,10 @@
         <v>ug</v>
       </c>
       <c r="E28" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D28),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>133</v>
       </c>
@@ -17317,11 +17290,10 @@
         <v>ug</v>
       </c>
       <c r="E29" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D29),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>132</v>
       </c>
@@ -17338,11 +17310,10 @@
         <v>mg</v>
       </c>
       <c r="E30" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D30),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>131</v>
       </c>
@@ -17359,11 +17330,10 @@
         <v>mg</v>
       </c>
       <c r="E31" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D31),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>130</v>
       </c>
@@ -17380,11 +17350,10 @@
         <v>ug</v>
       </c>
       <c r="E32" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D32),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>129</v>
       </c>
@@ -17401,11 +17370,10 @@
         <v>mg</v>
       </c>
       <c r="E33" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D33),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>128</v>
       </c>
@@ -17422,11 +17390,10 @@
         <v>ug</v>
       </c>
       <c r="E34" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D34),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>127</v>
       </c>
@@ -17443,11 +17410,10 @@
         <v>mg</v>
       </c>
       <c r="E35" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D35),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>308</v>
       </c>
@@ -17461,11 +17427,10 @@
         <v>108</v>
       </c>
       <c r="E36" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D36),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>474</v>
       </c>
@@ -17479,11 +17444,10 @@
         <v>108</v>
       </c>
       <c r="E37" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D37),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>332</v>
       </c>
@@ -17497,11 +17461,10 @@
         <v>105</v>
       </c>
       <c r="E38" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D38),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -17515,11 +17478,10 @@
         <v>108</v>
       </c>
       <c r="E39" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D39),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>323</v>
       </c>
@@ -17533,8 +17495,7 @@
         <v>108</v>
       </c>
       <c r="E40" s="3">
-        <f>IFERROR(VLOOKUP(LOWER(D40),UOM!$A$1:$B$5,2,FALSE),"UOM UNRECOGNIZED")</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17567,14 +17528,14 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
@@ -17588,7 +17549,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -17602,7 +17563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -17616,7 +17577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -17630,7 +17591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -17644,7 +17605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -17658,7 +17619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -17672,7 +17633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -17686,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -17700,7 +17661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -17714,7 +17675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -17728,7 +17689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -17742,7 +17703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -17756,7 +17717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>199</v>
       </c>
@@ -17770,7 +17731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -17784,7 +17745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -17798,7 +17759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -17812,7 +17773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -17826,7 +17787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -17840,7 +17801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -17854,7 +17815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -17868,7 +17829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -17882,7 +17843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -17896,7 +17857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -17910,7 +17871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -17924,7 +17885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -17938,7 +17899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -17952,7 +17913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>185</v>
       </c>
@@ -17966,7 +17927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -17980,7 +17941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -17994,7 +17955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -18008,7 +17969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -18022,7 +17983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>180</v>
       </c>
@@ -18036,7 +17997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -18050,7 +18011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -18064,7 +18025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -18078,7 +18039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -18092,7 +18053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -18106,7 +18067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -18120,7 +18081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -18134,7 +18095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -18148,7 +18109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>171</v>
       </c>
@@ -18162,7 +18123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -18176,7 +18137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>169</v>
       </c>
@@ -18190,7 +18151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -18204,7 +18165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -18218,7 +18179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -18232,7 +18193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -18246,7 +18207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -18260,7 +18221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -18274,7 +18235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>162</v>
       </c>
@@ -18288,7 +18249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -18302,7 +18263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -18316,7 +18277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -18330,7 +18291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -18344,7 +18305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -18373,14 +18334,14 @@
       <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.19921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -18402,7 +18363,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18424,7 +18385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18435,7 +18396,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18501,7 +18462,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18523,7 +18484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18534,7 +18495,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18545,7 +18506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="58.05" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18556,7 +18517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -18567,7 +18528,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -18578,7 +18539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -18589,7 +18550,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -18600,7 +18561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -18611,7 +18572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -18622,7 +18583,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>

--- a/dat/Data.xlsx
+++ b/dat/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="160" windowWidth="8790" windowHeight="10170"/>
+    <workbookView xWindow="4820" yWindow="160" windowWidth="8790" windowHeight="10170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UOM" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="708">
   <si>
     <t>Alias</t>
   </si>
@@ -2149,6 +2149,21 @@
   </si>
   <si>
     <t>US &amp; Canada</t>
+  </si>
+  <si>
+    <t>Austrailia &amp; NZ</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Japan &amp; N Korea</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Middle East</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2300,207 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2861,7 +3076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -4045,7 +4260,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D56">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4488,7 +4703,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3 A5:A6 A8:A42">
-    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6755,87 +6970,87 @@
   <autoFilter ref="A1:F134"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A36 C2:C36">
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A109">
-    <cfRule type="duplicateValues" dxfId="27" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A117">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E128">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="43" priority="20">
       <formula>NOT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="42" priority="19">
       <formula>NOT(E117)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B123">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A123">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>NOT(E124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E134">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>NOT(E129)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>NOT(E130)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>NOT(E132)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>NOT(E131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>NOT(E133)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>NOT(E134)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,11 +7154,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8005,11 +8220,11 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:G59" si="2">IFERROR(F33*0.5, "")</f>
+        <f t="shared" ref="G33:G60" si="2">IFERROR(F33*0.5, "")</f>
         <v>2.5</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" ref="H33:H59" si="3">IFERROR(F33*0.75, "")</f>
+        <f t="shared" ref="H33:H60" si="3">IFERROR(F33*0.75, "")</f>
         <v>3.75</v>
       </c>
       <c r="I33" s="3" t="b">
@@ -8839,14 +9054,229 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="3">
+        <f>IF(ISNUMBER(C60), IFERROR(VLOOKUP(LOWER(D60), UOM!$A$1:$B$5, 2, FALSE) * C60, "UOM UNRECOGNIZED"), "")</f>
+        <v>0.6</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I60" s="3" t="b">
+        <f>IF(B60="", "", IFERROR(IF(MATCH(B60, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="3">
+        <f>IF(ISNUMBER(C61), IFERROR(VLOOKUP(LOWER(D61), UOM!$A$1:$B$5, 2, FALSE) * C61, "UOM UNRECOGNIZED"), "")</f>
+        <v>0.6</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" ref="G61:G63" si="4">IFERROR(F61*0.5, "")</f>
+        <v>0.3</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" ref="H61:H63" si="5">IFERROR(F61*0.75, "")</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I61" s="3" t="b">
+        <f>IF(B61="", "", IFERROR(IF(MATCH(B61, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="3">
+        <f>IF(ISNUMBER(C62), IFERROR(VLOOKUP(LOWER(D62), UOM!$A$1:$B$5, 2, FALSE) * C62, "UOM UNRECOGNIZED"), "")</f>
+        <v>0.6</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="5"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I62" s="3" t="b">
+        <f>IF(B62="", "", IFERROR(IF(MATCH(B62, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="3">
+        <f>IF(ISNUMBER(C63), IFERROR(VLOOKUP(LOWER(D63), UOM!$A$1:$B$5, 2, FALSE) * C63, "UOM UNRECOGNIZED"), "")</f>
+        <v>0.6</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="5"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I63" s="3" t="b">
+        <f>IF(B63="", "", IFERROR(IF(MATCH(B63, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="3">
+        <f>IF(ISNUMBER(C64), IFERROR(VLOOKUP(LOWER(D64), UOM!$A$1:$B$5, 2, FALSE) * C64, "UOM UNRECOGNIZED"), "")</f>
+        <v>0.6</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" ref="G64" si="6">IFERROR(F64*0.5, "")</f>
+        <v>0.3</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" ref="H64" si="7">IFERROR(F64*0.75, "")</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I64" s="3" t="b">
+        <f>IF(B64="", "", IFERROR(IF(MATCH(B64, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I59">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F59">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+      <formula>"UOM UNRECOGNIZED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"UOM UNRECOGNIZED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"UOM UNRECOGNIZED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"UOM UNRECOGNIZED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"UOM UNRECOGNIZED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"UOM UNRECOGNIZED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17541,19 +17971,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B41">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dat/Data.xlsx
+++ b/dat/Data.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="703">
   <si>
     <t>Alias</t>
   </si>
@@ -2149,21 +2149,6 @@
   </si>
   <si>
     <t>US &amp; Canada</t>
-  </si>
-  <si>
-    <t>Austrailia &amp; NZ</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Japan &amp; N Korea</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Middle East</t>
   </si>
 </sst>
 </file>
@@ -2300,207 +2285,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4260,7 +4045,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D56">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4703,7 +4488,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3 A5:A6 A8:A42">
-    <cfRule type="duplicateValues" dxfId="49" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6970,87 +6755,87 @@
   <autoFilter ref="A1:F134"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A36 C2:C36">
-    <cfRule type="duplicateValues" dxfId="48" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A109">
-    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A117">
-    <cfRule type="duplicateValues" dxfId="45" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E128">
-    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="expression" dxfId="43" priority="20">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>NOT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="22" priority="19">
       <formula>NOT(E117)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="41" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="40" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B123">
-    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A123">
-    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="expression" dxfId="37" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>NOT(E124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E134">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>NOT(E129)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>NOT(E130)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>NOT(E132)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>NOT(E131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>NOT(E133)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>NOT(E134)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7154,11 +6939,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64:I64"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8220,11 +8005,11 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:G60" si="2">IFERROR(F33*0.5, "")</f>
+        <f t="shared" ref="G33:G59" si="2">IFERROR(F33*0.5, "")</f>
         <v>2.5</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" ref="H33:H60" si="3">IFERROR(F33*0.75, "")</f>
+        <f t="shared" ref="H33:H59" si="3">IFERROR(F33*0.75, "")</f>
         <v>3.75</v>
       </c>
       <c r="I33" s="3" t="b">
@@ -9054,229 +8839,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="3">
-        <f>IF(ISNUMBER(C60), IFERROR(VLOOKUP(LOWER(D60), UOM!$A$1:$B$5, 2, FALSE) * C60, "UOM UNRECOGNIZED"), "")</f>
-        <v>0.6</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="3"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I60" s="3" t="b">
-        <f>IF(B60="", "", IFERROR(IF(MATCH(B60, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61" s="3">
-        <f>IF(ISNUMBER(C61), IFERROR(VLOOKUP(LOWER(D61), UOM!$A$1:$B$5, 2, FALSE) * C61, "UOM UNRECOGNIZED"), "")</f>
-        <v>0.6</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" ref="G61:G63" si="4">IFERROR(F61*0.5, "")</f>
-        <v>0.3</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" ref="H61:H63" si="5">IFERROR(F61*0.75, "")</f>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I61" s="3" t="b">
-        <f>IF(B61="", "", IFERROR(IF(MATCH(B61, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F62" s="3">
-        <f>IF(ISNUMBER(C62), IFERROR(VLOOKUP(LOWER(D62), UOM!$A$1:$B$5, 2, FALSE) * C62, "UOM UNRECOGNIZED"), "")</f>
-        <v>0.6</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="5"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I62" s="3" t="b">
-        <f>IF(B62="", "", IFERROR(IF(MATCH(B62, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" s="3">
-        <f>IF(ISNUMBER(C63), IFERROR(VLOOKUP(LOWER(D63), UOM!$A$1:$B$5, 2, FALSE) * C63, "UOM UNRECOGNIZED"), "")</f>
-        <v>0.6</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="5"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I63" s="3" t="b">
-        <f>IF(B63="", "", IFERROR(IF(MATCH(B63, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F64" s="3">
-        <f>IF(ISNUMBER(C64), IFERROR(VLOOKUP(LOWER(D64), UOM!$A$1:$B$5, 2, FALSE) * C64, "UOM UNRECOGNIZED"), "")</f>
-        <v>0.6</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" ref="G64" si="6">IFERROR(F64*0.5, "")</f>
-        <v>0.3</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" ref="H64" si="7">IFERROR(F64*0.75, "")</f>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I64" s="3" t="b">
-        <f>IF(B64="", "", IFERROR(IF(MATCH(B64, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I59">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F59">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
-      <formula>"UOM UNRECOGNIZED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"UOM UNRECOGNIZED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>"UOM UNRECOGNIZED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>"UOM UNRECOGNIZED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"UOM UNRECOGNIZED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>"UOM UNRECOGNIZED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17971,19 +17541,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B41">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dat/Data.xlsx
+++ b/dat/Data.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="704">
   <si>
     <t>Alias</t>
   </si>
@@ -2149,6 +2149,9 @@
   </si>
   <si>
     <t>US &amp; Canada</t>
+  </si>
+  <si>
+    <t>Herbalife</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2288,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4045,7 +4088,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D56">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4488,7 +4531,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3 A5:A6 A8:A42">
-    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6755,87 +6798,87 @@
   <autoFilter ref="A1:F134"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A36 C2:C36">
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A109">
-    <cfRule type="duplicateValues" dxfId="27" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A117">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E128">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B116">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="27" priority="20">
       <formula>NOT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>NOT(E117)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B123">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A123">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="21" priority="14">
       <formula>NOT(E124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E134">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>NOT(E129)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>NOT(E130)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>NOT(E132)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>NOT(E131)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>NOT(E133)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>NOT(E134)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,11 +6982,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8005,11 +8048,11 @@
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:G59" si="2">IFERROR(F33*0.5, "")</f>
+        <f t="shared" ref="G33:G89" si="2">IFERROR(F33*0.5, "")</f>
         <v>2.5</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" ref="H33:H59" si="3">IFERROR(F33*0.75, "")</f>
+        <f t="shared" ref="H33:H89" si="3">IFERROR(F33*0.75, "")</f>
         <v>3.75</v>
       </c>
       <c r="I33" s="3" t="b">
@@ -8839,14 +8882,987 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="3">
+        <f>IF(ISNUMBER(C60), IFERROR(VLOOKUP(LOWER(D60), UOM!$A$1:$B$5, 2, FALSE) * C60, "UOM UNRECOGNIZED"), "")</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="I60" s="3" t="b">
+        <f>IF(B60="", "", IFERROR(IF(MATCH(B60, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="3">
+        <f>IF(ISNUMBER(C61), IFERROR(VLOOKUP(LOWER(D61), UOM!$A$1:$B$5, 2, FALSE) * C61, "UOM UNRECOGNIZED"), "")</f>
+        <v>3500</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="3"/>
+        <v>2625</v>
+      </c>
+      <c r="I61" s="3" t="b">
+        <f>IF(B61="", "", IFERROR(IF(MATCH(B61, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="3">
+        <f>IF(ISNUMBER(C62), IFERROR(VLOOKUP(LOWER(D62), UOM!$A$1:$B$5, 2, FALSE) * C62, "UOM UNRECOGNIZED"), "")</f>
+        <v>4000</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="I62" s="3" t="b">
+        <f>IF(B62="", "", IFERROR(IF(MATCH(B62, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="3">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" s="3">
+        <f>IF(ISNUMBER(C63), IFERROR(VLOOKUP(LOWER(D63), UOM!$A$1:$B$5, 2, FALSE) * C63, "UOM UNRECOGNIZED"), "")</f>
+        <v>10</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="I63" s="3" t="b">
+        <f>IF(B63="", "", IFERROR(IF(MATCH(B63, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="3">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="3">
+        <f>IF(ISNUMBER(C64), IFERROR(VLOOKUP(LOWER(D64), UOM!$A$1:$B$5, 2, FALSE) * C64, "UOM UNRECOGNIZED"), "")</f>
+        <v>11</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="3"/>
+        <v>8.25</v>
+      </c>
+      <c r="I64" s="3" t="b">
+        <f>IF(B64="", "", IFERROR(IF(MATCH(B64, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="3">
+        <v>20</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="3">
+        <f>IF(ISNUMBER(C65), IFERROR(VLOOKUP(LOWER(D65), UOM!$A$1:$B$5, 2, FALSE) * C65, "UOM UNRECOGNIZED"), "")</f>
+        <v>20</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I65" s="3" t="b">
+        <f>IF(B65="", "", IFERROR(IF(MATCH(B65, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="3">
+        <v>35</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="3">
+        <f>IF(ISNUMBER(C66), IFERROR(VLOOKUP(LOWER(D66), UOM!$A$1:$B$5, 2, FALSE) * C66, "UOM UNRECOGNIZED"), "")</f>
+        <v>35</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="3"/>
+        <v>26.25</v>
+      </c>
+      <c r="I66" s="3" t="b">
+        <f>IF(B66="", "", IFERROR(IF(MATCH(B66, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="3">
+        <v>40</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="3">
+        <f>IF(ISNUMBER(C67), IFERROR(VLOOKUP(LOWER(D67), UOM!$A$1:$B$5, 2, FALSE) * C67, "UOM UNRECOGNIZED"), "")</f>
+        <v>40</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I67" s="3" t="b">
+        <f>IF(B67="", "", IFERROR(IF(MATCH(B67, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="3">
+        <v>45</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="3">
+        <f>IF(ISNUMBER(C68), IFERROR(VLOOKUP(LOWER(D68), UOM!$A$1:$B$5, 2, FALSE) * C68, "UOM UNRECOGNIZED"), "")</f>
+        <v>45</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="3"/>
+        <v>33.75</v>
+      </c>
+      <c r="I68" s="3" t="b">
+        <f>IF(B68="", "", IFERROR(IF(MATCH(B68, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3">
+        <v>100</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="3">
+        <f>IF(ISNUMBER(C69), IFERROR(VLOOKUP(LOWER(D69), UOM!$A$1:$B$5, 2, FALSE) * C69, "UOM UNRECOGNIZED"), "")</f>
+        <v>0.1</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="I69" s="3" t="b">
+        <f>IF(B69="", "", IFERROR(IF(MATCH(B69, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="3">
+        <v>100</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="3">
+        <f>IF(ISNUMBER(C70), IFERROR(VLOOKUP(LOWER(D70), UOM!$A$1:$B$5, 2, FALSE) * C70, "UOM UNRECOGNIZED"), "")</f>
+        <v>100</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I70" s="3" t="b">
+        <f>IF(B70="", "", IFERROR(IF(MATCH(B70, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="3">
+        <v>350</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="3">
+        <f>IF(ISNUMBER(C71), IFERROR(VLOOKUP(LOWER(D71), UOM!$A$1:$B$5, 2, FALSE) * C71, "UOM UNRECOGNIZED"), "")</f>
+        <v>350</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="3"/>
+        <v>262.5</v>
+      </c>
+      <c r="I71" s="3" t="b">
+        <f>IF(B71="", "", IFERROR(IF(MATCH(B71, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="3">
+        <v>400</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="3">
+        <f>IF(ISNUMBER(C72), IFERROR(VLOOKUP(LOWER(D72), UOM!$A$1:$B$5, 2, FALSE) * C72, "UOM UNRECOGNIZED"), "")</f>
+        <v>0.4</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I72" s="3" t="b">
+        <f>IF(B72="", "", IFERROR(IF(MATCH(B72, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="3">
+        <f>IF(ISNUMBER(C73), IFERROR(VLOOKUP(LOWER(D73), UOM!$A$1:$B$5, 2, FALSE) * C73, "UOM UNRECOGNIZED"), "")</f>
+        <v>1000</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="I73" s="3" t="b">
+        <f>IF(B73="", "", IFERROR(IF(MATCH(B73, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F74" s="3">
+        <f>IF(ISNUMBER(C74), IFERROR(VLOOKUP(LOWER(D74), UOM!$A$1:$B$5, 2, FALSE) * C74, "UOM UNRECOGNIZED"), "")</f>
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="I74" s="3" t="b">
+        <f>IF(B74="", "", IFERROR(IF(MATCH(B74, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="3">
+        <f>IF(ISNUMBER(C75), IFERROR(VLOOKUP(LOWER(D75), UOM!$A$1:$B$5, 2, FALSE) * C75, "UOM UNRECOGNIZED"), "")</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="I75" s="3" t="b">
+        <f>IF(B75="", "", IFERROR(IF(MATCH(B75, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="3">
+        <f>IF(ISNUMBER(C76), IFERROR(VLOOKUP(LOWER(D76), UOM!$A$1:$B$5, 2, FALSE) * C76, "UOM UNRECOGNIZED"), "")</f>
+        <v>2000</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="I76" s="3" t="b">
+        <f>IF(B76="", "", IFERROR(IF(MATCH(B76, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="3">
+        <f>IF(ISNUMBER(C77), IFERROR(VLOOKUP(LOWER(D77), UOM!$A$1:$B$5, 2, FALSE) * C77, "UOM UNRECOGNIZED"), "")</f>
+        <v>2</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I77" s="3" t="b">
+        <f>IF(B77="", "", IFERROR(IF(MATCH(B77, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="3">
+        <f>IF(ISNUMBER(C78), IFERROR(VLOOKUP(LOWER(D78), UOM!$A$1:$B$5, 2, FALSE) * C78, "UOM UNRECOGNIZED"), "")</f>
+        <v>2500</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="3"/>
+        <v>1875</v>
+      </c>
+      <c r="I78" s="3" t="b">
+        <f>IF(B78="", "", IFERROR(IF(MATCH(B78, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="3">
+        <f>IF(ISNUMBER(C79), IFERROR(VLOOKUP(LOWER(D79), UOM!$A$1:$B$5, 2, FALSE) * C79, "UOM UNRECOGNIZED"), "")</f>
+        <v>3</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="I79" s="3" t="b">
+        <f>IF(B79="", "", IFERROR(IF(MATCH(B79, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" s="3">
+        <f>IF(ISNUMBER(C80), IFERROR(VLOOKUP(LOWER(D80), UOM!$A$1:$B$5, 2, FALSE) * C80, "UOM UNRECOGNIZED"), "")</f>
+        <v>10</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="I80" s="3" t="b">
+        <f>IF(B80="", "", IFERROR(IF(MATCH(B80, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="3" t="str">
+        <f>IF(ISNUMBER(C81), IFERROR(VLOOKUP(LOWER(D81), UOM!$A$1:$B$5, 2, FALSE) * C81, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H81" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I81" s="3" t="b">
+        <f>IF(B81="", "", IFERROR(IF(MATCH(B81, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="3" t="str">
+        <f>IF(ISNUMBER(C82), IFERROR(VLOOKUP(LOWER(D82), UOM!$A$1:$B$5, 2, FALSE) * C82, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H82" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I82" s="3" t="b">
+        <f>IF(B82="", "", IFERROR(IF(MATCH(B82, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="3" t="str">
+        <f>IF(ISNUMBER(C83), IFERROR(VLOOKUP(LOWER(D83), UOM!$A$1:$B$5, 2, FALSE) * C83, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H83" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I83" s="3" t="b">
+        <f>IF(B83="", "", IFERROR(IF(MATCH(B83, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="3" t="str">
+        <f>IF(ISNUMBER(C84), IFERROR(VLOOKUP(LOWER(D84), UOM!$A$1:$B$5, 2, FALSE) * C84, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H84" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I84" s="3" t="b">
+        <f>IF(B84="", "", IFERROR(IF(MATCH(B84, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" s="3" t="str">
+        <f>IF(ISNUMBER(C85), IFERROR(VLOOKUP(LOWER(D85), UOM!$A$1:$B$5, 2, FALSE) * C85, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H85" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I85" s="3" t="b">
+        <f>IF(B85="", "", IFERROR(IF(MATCH(B85, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="3" t="str">
+        <f>IF(ISNUMBER(C86), IFERROR(VLOOKUP(LOWER(D86), UOM!$A$1:$B$5, 2, FALSE) * C86, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H86" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I86" s="3" t="b">
+        <f>IF(B86="", "", IFERROR(IF(MATCH(B86, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="3" t="str">
+        <f>IF(ISNUMBER(C87), IFERROR(VLOOKUP(LOWER(D87), UOM!$A$1:$B$5, 2, FALSE) * C87, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H87" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I87" s="3" t="b">
+        <f>IF(B87="", "", IFERROR(IF(MATCH(B87, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" s="3" t="str">
+        <f>IF(ISNUMBER(C88), IFERROR(VLOOKUP(LOWER(D88), UOM!$A$1:$B$5, 2, FALSE) * C88, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H88" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I88" s="3" t="b">
+        <f>IF(B88="", "", IFERROR(IF(MATCH(B88, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="3" t="str">
+        <f>IF(ISNUMBER(C89), IFERROR(VLOOKUP(LOWER(D89), UOM!$A$1:$B$5, 2, FALSE) * C89, "UOM UNRECOGNIZED"), "")</f>
+        <v/>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H89" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I89" s="3" t="b">
+        <f>IF(B89="", "", IFERROR(IF(MATCH(B89, NutrientAliases!$A$2:$A$5000, 0), TRUE), FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I59">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F59">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>"UOM UNRECOGNIZED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:I89">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60:F89">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"UOM UNRECOGNIZED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17541,19 +18557,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B41">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
